--- a/biology/Zoologie/Attila_à_calotte_grise/Attila_à_calotte_grise.xlsx
+++ b/biology/Zoologie/Attila_à_calotte_grise/Attila_à_calotte_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_calotte_grise</t>
+          <t>Attila_à_calotte_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attila bolivianus
-L'Attila à calotte grise (Attila bolivianus), également apellé Attila de Lafresnaye ou Moucherolle de Lafresnaye[1], est une espèce de passereau de la famille des Tyrannidae.
+L'Attila à calotte grise (Attila bolivianus), également apellé Attila de Lafresnaye ou Moucherolle de Lafresnaye, est une espèce de passereau de la famille des Tyrannidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_calotte_grise</t>
+          <t>Attila_à_calotte_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par 2 sous-espèces :
 Attila bolivianus bolivianus  : sud-ouest de l'Amazonie (sud-est du Pérou, sud-ouest du Brésil et nord de la Bolivie) ;
-Attila bolivianus nattereri Hellmayr, 1902[2] : centre de l'Amazonie péruvienne (notamment au Sud de l'Amazone) et sud-est de la Colombie, en direction de l'est le long des deux rives de l'Amazone, jusqu'à l'est du Brésil[1].</t>
+Attila bolivianus nattereri Hellmayr, 1902 : centre de l'Amazonie péruvienne (notamment au Sud de l'Amazone) et sud-est de la Colombie, en direction de l'est le long des deux rives de l'Amazone, jusqu'à l'est du Brésil.</t>
         </is>
       </c>
     </row>
